--- a/docs/Contracts/NEW 2024 Contract NC Gunite.xlsx
+++ b/docs/Contracts/NEW 2024 Contract NC Gunite.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\Submerge\docs\Contracts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2B22007-A94D-4DD4-89B0-9EE699AAE400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75326380-7814-49DB-BB97-9B873F8A585B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30612" yWindow="-7752" windowWidth="17496" windowHeight="30936" xr2:uid="{C8925376-2B03-47D1-8337-7170FEBA89A7}"/>
   </bookViews>
@@ -42147,8 +42147,8 @@
   </sheetPr>
   <dimension ref="A1:AK312"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A230" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A161" zoomScale="60" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="Q58" sqref="Q58:U58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -43729,7 +43729,7 @@
         <v>315</v>
       </c>
       <c r="Q58" s="80" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="R58" s="81"/>
       <c r="S58" s="81"/>
